--- a/budget/budget2024.xlsx
+++ b/budget/budget2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felicia/Desktop/lille_kat/lillekat.github.io/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B859A82-EACA-EA4E-8E77-ACD5A441E1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4CF50A-0C6F-1847-9DAC-1AE12C61E54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
+    <workbookView xWindow="2400" yWindow="940" windowWidth="26100" windowHeight="11720" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
   <si>
     <t>Lillekat 2022 budget</t>
   </si>
@@ -195,6 +195,18 @@
   </si>
   <si>
     <t>penge på snacks</t>
+  </si>
+  <si>
+    <t>Lillekat2024-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skinke </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternatively: </t>
+  </si>
+  <si>
+    <t>nr til besilling</t>
   </si>
 </sst>
 </file>
@@ -611,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -677,6 +689,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -704,7 +717,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1039,26 +1052,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -1243,10 +1256,10 @@
     </row>
     <row r="10" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="22" t="s">
         <v>17</v>
       </c>
@@ -1387,10 +1400,10 @@
     </row>
     <row r="23" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="54"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="22" t="s">
         <v>17</v>
       </c>
@@ -1541,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B219F9F2-A4CC-AD4F-A3F1-917E919B80E2}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A5" zoomScale="114" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1561,26 +1574,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
@@ -1607,10 +1620,10 @@
       <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="58"/>
+      <c r="L3" s="59"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1636,10 +1649,10 @@
         <f>E4*F4</f>
         <v>4500</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="56"/>
+      <c r="L4" s="57"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -1826,17 +1839,17 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="K12" s="55" t="s">
+      <c r="K12" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="56"/>
+      <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="59"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="60"/>
       <c r="K13" s="44" t="s">
         <v>33</v>
       </c>
@@ -2014,10 +2027,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3C72BB-923F-DB4A-A4B9-C9C78647B110}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2026,31 +2039,32 @@
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -2075,10 +2089,10 @@
       <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2093,16 +2107,16 @@
       <c r="D4">
         <v>61</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="51">
         <v>1475</v>
       </c>
       <c r="F4" s="32"/>
       <c r="G4" s="33"/>
       <c r="H4" s="34"/>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -2112,9 +2126,16 @@
         <v>45345</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
+      <c r="E5" s="4">
+        <v>1495</v>
+      </c>
+      <c r="F5" s="32">
+        <f>D21</f>
+        <v>2609</v>
+      </c>
+      <c r="G5" s="33">
+        <v>50</v>
+      </c>
       <c r="H5" s="34"/>
       <c r="J5" s="44" t="s">
         <v>24</v>
@@ -2214,7 +2235,7 @@
       </c>
       <c r="E10" s="21">
         <f>SUM(E4:E9)</f>
-        <v>1475</v>
+        <v>2970</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -2243,11 +2264,243 @@
       <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="60"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="23">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="24">
+        <f>B16*110</f>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="23">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" s="24">
+        <f>B17*139</f>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="23">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" s="24">
+        <f>B18*129</f>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="23">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19" s="24">
+        <f>B19*129</f>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="23">
+        <v>4</v>
+      </c>
+      <c r="C20" s="25">
+        <v>24</v>
+      </c>
+      <c r="D20" s="24">
+        <f>B20*150</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="29">
+        <f>SUM(B16:B20)</f>
+        <v>20</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31">
+        <f>SUM(D16:D20)</f>
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="60"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="23">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="24">
+        <f>B26*65</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="23">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27" s="24">
+        <f>B27*79</f>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="23">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28" s="24">
+        <f>B28*75</f>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="23">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29" s="24">
+        <f>B29*75</f>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="23">
+        <v>5</v>
+      </c>
+      <c r="C30" s="25">
+        <v>24</v>
+      </c>
+      <c r="D30" s="24">
+        <f>B30*85</f>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="29">
+        <f>SUM(B26:B30)</f>
+        <v>25</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31">
+        <f>SUM(D26:D30)</f>
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>26786171</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/budget/budget2024.xlsx
+++ b/budget/budget2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felicia/Desktop/lille_kat/lillekat.github.io/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4CF50A-0C6F-1847-9DAC-1AE12C61E54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48629294-B407-1642-B385-95AFE732D760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="940" windowWidth="26100" windowHeight="11720" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
   <si>
     <t>Lillekat 2022 budget</t>
   </si>
@@ -203,10 +203,10 @@
     <t xml:space="preserve">Skinke </t>
   </si>
   <si>
-    <t xml:space="preserve">Alternatively: </t>
-  </si>
-  <si>
     <t>nr til besilling</t>
+  </si>
+  <si>
+    <t>penge på pizza</t>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -717,7 +717,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2027,10 +2026,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3C72BB-923F-DB4A-A4B9-C9C78647B110}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2039,10 +2038,12 @@
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>46</v>
       </c>
@@ -2052,9 +2053,8 @@
       <c r="E1" s="52"/>
       <c r="F1" s="52"/>
       <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="53"/>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
@@ -2062,9 +2062,8 @@
       <c r="E2" s="53"/>
       <c r="F2" s="53"/>
       <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:10" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -2080,21 +2079,18 @@
       <c r="E3" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>13</v>
+      <c r="F3" s="49" t="s">
+        <v>56</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J3" s="59"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -2110,15 +2106,17 @@
       <c r="E4" s="51">
         <v>1475</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
-      <c r="J4" s="56" t="s">
+      <c r="F4" s="51"/>
+      <c r="G4" s="33">
+        <f>F4+E4</f>
+        <v>1475</v>
+      </c>
+      <c r="I4" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="57"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J4" s="57"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -2129,22 +2127,21 @@
       <c r="E5" s="4">
         <v>1495</v>
       </c>
-      <c r="F5" s="32">
-        <f>D21</f>
+      <c r="F5" s="4">
         <v>2609</v>
       </c>
       <c r="G5" s="33">
-        <v>50</v>
-      </c>
-      <c r="H5" s="34"/>
-      <c r="J5" s="44" t="s">
+        <f t="shared" ref="G5:G9" si="0">F5+E5</f>
+        <v>4104</v>
+      </c>
+      <c r="I5" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="48">
+      <c r="J5" s="48">
         <v>12000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>49</v>
       </c>
@@ -2153,17 +2150,19 @@
       </c>
       <c r="C6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
-      <c r="J6" s="44" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="48">
+      <c r="J6" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>50</v>
       </c>
@@ -2172,17 +2171,19 @@
       </c>
       <c r="C7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34"/>
-      <c r="J7" s="44" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="48">
+      <c r="J7" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
@@ -2191,17 +2192,19 @@
       </c>
       <c r="C8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
-      <c r="J8" s="47" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="41">
+      <c r="J8" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>47</v>
       </c>
@@ -2210,17 +2213,19 @@
       </c>
       <c r="C9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="J9" s="47" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="41">
+      <c r="J9" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
@@ -2237,41 +2242,40 @@
         <f>SUM(E4:E9)</f>
         <v>2970</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21">
-        <f>SUM(H4:H9)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="40" t="s">
+      <c r="F10" s="21">
+        <f>SUM(F4:F9)</f>
+        <v>2609</v>
+      </c>
+      <c r="G10" s="21">
+        <f>E10+F10</f>
+        <v>5579</v>
+      </c>
+      <c r="I10" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="46">
-        <f>SUM(K5:K9)</f>
+      <c r="J10" s="46">
+        <f>SUM(J5:J9)</f>
         <v>12000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>20</v>
-      </c>
+    <row r="11" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="35"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="54" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="60"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="22" t="s">
         <v>38</v>
       </c>
@@ -2281,9 +2285,8 @@
       <c r="D15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="50" t="s">
         <v>40</v>
       </c>
@@ -2373,134 +2376,22 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="60"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="23">
-        <v>5</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="24">
-        <f>B26*65</f>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="23">
-        <v>5</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27" s="24">
-        <f>B27*79</f>
-        <v>395</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="23">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>10</v>
-      </c>
-      <c r="D28" s="24">
-        <f>B28*75</f>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="23">
-        <v>5</v>
-      </c>
-      <c r="C29">
-        <v>12</v>
-      </c>
-      <c r="D29" s="24">
-        <f>B29*75</f>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="23">
-        <v>5</v>
-      </c>
-      <c r="C30" s="25">
-        <v>24</v>
-      </c>
-      <c r="D30" s="24">
-        <f>B30*85</f>
-        <v>425</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="29">
-        <f>SUM(B26:B30)</f>
-        <v>25</v>
-      </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31">
-        <f>SUM(D26:D30)</f>
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A26">
         <v>26786171</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/budget/budget2024.xlsx
+++ b/budget/budget2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felicia/Desktop/lille_kat/lillekat.github.io/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48629294-B407-1642-B385-95AFE732D760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F0B364-24F9-AB4C-B9D2-0690B32A41F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="940" windowWidth="26100" windowHeight="11720" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
@@ -2028,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3C72BB-923F-DB4A-A4B9-C9C78647B110}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2123,7 +2123,12 @@
       <c r="B5" s="7">
         <v>45345</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4">
+        <v>39</v>
+      </c>
+      <c r="D5">
+        <v>110</v>
+      </c>
       <c r="E5" s="4">
         <v>1495</v>
       </c>
@@ -2232,11 +2237,11 @@
       <c r="B10" s="20"/>
       <c r="C10" s="35">
         <f>SUM(C4:C9)</f>
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D10" s="20">
         <f>SUM(D4:D9)</f>
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="E10" s="21">
         <f>SUM(E4:E9)</f>

--- a/budget/budget2024.xlsx
+++ b/budget/budget2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felicia/Desktop/lille_kat/lillekat.github.io/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F0B364-24F9-AB4C-B9D2-0690B32A41F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF1947A-B438-2647-8F36-6A8C2F9BB064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="940" windowWidth="26100" windowHeight="11720" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
@@ -1553,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B219F9F2-A4CC-AD4F-A3F1-917E919B80E2}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="114" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="114" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2028,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3C72BB-923F-DB4A-A4B9-C9C78647B110}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/budget/budget2024.xlsx
+++ b/budget/budget2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felicia/Desktop/lille_kat/lillekat.github.io/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF1947A-B438-2647-8F36-6A8C2F9BB064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C75FDB-C0AF-5441-8539-FE76F93C0DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="940" windowWidth="26100" windowHeight="11720" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
+    <workbookView xWindow="2400" yWindow="940" windowWidth="26100" windowHeight="8900" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="57">
   <si>
     <t>Lillekat 2022 budget</t>
   </si>
@@ -179,15 +179,9 @@
     <t>Lillekat 2024 budget</t>
   </si>
   <si>
-    <t>Lillekat2024-06</t>
-  </si>
-  <si>
     <t>Lillekat2024-01</t>
   </si>
   <si>
-    <t>Lillekat2024-03</t>
-  </si>
-  <si>
     <t>Lillekat2024-04</t>
   </si>
   <si>
@@ -207,6 +201,12 @@
   </si>
   <si>
     <t>penge på pizza</t>
+  </si>
+  <si>
+    <t>Lillekat2024-03 Novo sponsoreret</t>
+  </si>
+  <si>
+    <t>Lillekat2024 D-Pop</t>
   </si>
 </sst>
 </file>
@@ -2028,14 +2028,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3C72BB-923F-DB4A-A4B9-C9C78647B110}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
@@ -2077,10 +2078,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>18</v>
@@ -2092,7 +2093,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2">
         <v>45331</v>
@@ -2148,18 +2149,24 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B6" s="7">
         <v>45366</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C6" s="4">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>52</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="33"/>
       <c r="I6" s="44" t="s">
         <v>27</v>
       </c>
@@ -2169,17 +2176,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="7">
         <v>45387</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4">
+        <v>3200</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="I7" s="44" t="s">
         <v>27</v>
@@ -2190,7 +2199,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B8" s="7">
         <v>45401</v>
@@ -2211,7 +2220,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" s="7">
         <v>45415</v>
@@ -2237,15 +2246,15 @@
       <c r="B10" s="20"/>
       <c r="C10" s="35">
         <f>SUM(C4:C9)</f>
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="D10" s="20">
         <f>SUM(D4:D9)</f>
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="E10" s="21">
         <f>SUM(E4:E9)</f>
-        <v>2970</v>
+        <v>6170</v>
       </c>
       <c r="F10" s="21">
         <f>SUM(F4:F9)</f>
@@ -2253,7 +2262,7 @@
       </c>
       <c r="G10" s="21">
         <f>E10+F10</f>
-        <v>5579</v>
+        <v>8779</v>
       </c>
       <c r="I10" s="40" t="s">
         <v>14</v>
@@ -2275,7 +2284,7 @@
     <row r="12" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="60"/>
@@ -2338,7 +2347,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" s="23">
         <v>3</v>
@@ -2383,7 +2392,7 @@
     <row r="22" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">

--- a/budget/budget2024.xlsx
+++ b/budget/budget2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felicia/Desktop/lille_kat/lillekat.github.io/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C75FDB-C0AF-5441-8539-FE76F93C0DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E3E498-951C-664A-A048-1A2BBAA728D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="940" windowWidth="26100" windowHeight="8900" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
+    <workbookView xWindow="2400" yWindow="940" windowWidth="26100" windowHeight="13880" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="57">
   <si>
     <t>Lillekat 2022 budget</t>
   </si>
@@ -2029,7 +2029,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2183,12 +2183,12 @@
       </c>
       <c r="C7" s="4"/>
       <c r="E7" s="4">
-        <v>3200</v>
+        <v>3233</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="33">
         <f t="shared" si="0"/>
-        <v>3200</v>
+        <v>3233</v>
       </c>
       <c r="I7" s="44" t="s">
         <v>27</v>
@@ -2205,12 +2205,13 @@
         <v>45401</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="33"/>
       <c r="I8" s="47" t="s">
         <v>23</v>
       </c>
@@ -2254,7 +2255,7 @@
       </c>
       <c r="E10" s="21">
         <f>SUM(E4:E9)</f>
-        <v>6170</v>
+        <v>6203</v>
       </c>
       <c r="F10" s="21">
         <f>SUM(F4:F9)</f>
@@ -2262,7 +2263,7 @@
       </c>
       <c r="G10" s="21">
         <f>E10+F10</f>
-        <v>8779</v>
+        <v>8812</v>
       </c>
       <c r="I10" s="40" t="s">
         <v>14</v>

--- a/budget/budget2024.xlsx
+++ b/budget/budget2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felicia/Desktop/lille_kat/lillekat.github.io/budget/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felicia/Desktop/lillekat.github.io/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E3E498-951C-664A-A048-1A2BBAA728D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1AE719-EA35-2348-91FC-4101F41C3515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="940" windowWidth="26100" windowHeight="13880" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="58">
   <si>
     <t>Lillekat 2022 budget</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Lillekat2024 D-Pop</t>
+  </si>
+  <si>
+    <t>$</t>
   </si>
 </sst>
 </file>
@@ -2029,7 +2032,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2181,7 +2184,12 @@
       <c r="B7" s="7">
         <v>45387</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>29</v>
+      </c>
       <c r="E7" s="4">
         <v>3233</v>
       </c>
@@ -2247,11 +2255,11 @@
       <c r="B10" s="20"/>
       <c r="C10" s="35">
         <f>SUM(C4:C9)</f>
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D10" s="20">
         <f>SUM(D4:D9)</f>
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="E10" s="21">
         <f>SUM(E4:E9)</f>
@@ -2316,7 +2324,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="50" t="s">
         <v>41</v>
       </c>
@@ -2330,8 +2338,11 @@
         <f>B17*139</f>
         <v>556</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="50" t="s">
         <v>42</v>
       </c>
@@ -2346,7 +2357,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="50" t="s">
         <v>52</v>
       </c>
@@ -2361,7 +2372,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="50" t="s">
         <v>44</v>
       </c>
@@ -2376,7 +2387,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>18</v>
       </c>
@@ -2390,13 +2401,13 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26786171</v>
       </c>

--- a/budget/budget2024.xlsx
+++ b/budget/budget2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felicia/Desktop/lillekat.github.io/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1AE719-EA35-2348-91FC-4101F41C3515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91BA0D5-D000-F944-AB99-905404EE214A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="940" windowWidth="26100" windowHeight="13880" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
@@ -2031,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3C72BB-923F-DB4A-A4B9-C9C78647B110}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B5" s="7">
         <v>45345</v>

--- a/budget/budget2024.xlsx
+++ b/budget/budget2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felicia/Desktop/lillekat.github.io/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91BA0D5-D000-F944-AB99-905404EE214A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1740AB04-0AD1-DD41-B2D7-7F093DFE2495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="940" windowWidth="26100" windowHeight="13880" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
+    <workbookView xWindow="5940" yWindow="500" windowWidth="22860" windowHeight="9800" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="58">
   <si>
     <t>Lillekat 2022 budget</t>
   </si>
@@ -209,7 +209,7 @@
     <t>Lillekat2024 D-Pop</t>
   </si>
   <si>
-    <t>$</t>
+    <t xml:space="preserve">det blev faktisk kun 1670 </t>
   </si>
 </sst>
 </file>
@@ -220,7 +220,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;kr.&quot;_-;\-* #,##0.00\ &quot;kr.&quot;_-;_-* &quot;-&quot;??\ &quot;kr.&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;kr.&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -288,8 +288,22 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia Pro"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,8 +346,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -621,12 +641,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -693,6 +726,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -718,6 +763,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1054,26 +1108,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -1258,10 +1312,10 @@
     </row>
     <row r="10" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="55"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="22" t="s">
         <v>17</v>
       </c>
@@ -1402,10 +1456,10 @@
     </row>
     <row r="23" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="55"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="22" t="s">
         <v>17</v>
       </c>
@@ -1576,26 +1630,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
@@ -1622,10 +1676,10 @@
       <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="59"/>
+      <c r="L3" s="69"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1651,10 +1705,10 @@
         <f>E4*F4</f>
         <v>4500</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="57"/>
+      <c r="L4" s="67"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -1841,17 +1895,17 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="K12" s="56" t="s">
+      <c r="K12" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="57"/>
+      <c r="L12" s="67"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="60"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="70"/>
       <c r="K13" s="44" t="s">
         <v>33</v>
       </c>
@@ -2031,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3C72BB-923F-DB4A-A4B9-C9C78647B110}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2043,29 +2097,29 @@
     <col min="4" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
     </row>
     <row r="3" spans="1:10" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
@@ -2089,10 +2143,10 @@
       <c r="G3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="58" t="s">
+      <c r="I3" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="59"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2115,10 +2169,10 @@
         <f>F4+E4</f>
         <v>1475</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="57"/>
+      <c r="J4" s="67"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -2234,12 +2288,19 @@
       <c r="B9" s="7">
         <v>45415</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4">
+        <v>1670</v>
+      </c>
       <c r="G9" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F9+E9</f>
+        <v>1670</v>
       </c>
       <c r="I9" s="47" t="s">
         <v>23</v>
@@ -2255,11 +2316,11 @@
       <c r="B10" s="20"/>
       <c r="C10" s="35">
         <f>SUM(C4:C9)</f>
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="D10" s="20">
         <f>SUM(D4:D9)</f>
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="E10" s="21">
         <f>SUM(E4:E9)</f>
@@ -2267,11 +2328,11 @@
       </c>
       <c r="F10" s="21">
         <f>SUM(F4:F9)</f>
-        <v>2609</v>
+        <v>4279</v>
       </c>
       <c r="G10" s="21">
-        <f>E10+F10</f>
-        <v>8812</v>
+        <f>SUM(G4:G9)</f>
+        <v>10482</v>
       </c>
       <c r="I10" s="40" t="s">
         <v>14</v>
@@ -2292,11 +2353,17 @@
     </row>
     <row r="12" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="60"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="70"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="72"/>
+      <c r="I14" s="73"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="22" t="s">
@@ -2308,6 +2375,16 @@
       <c r="D15" s="22" t="s">
         <v>17</v>
       </c>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="50" t="s">
@@ -2323,8 +2400,21 @@
         <f>B16*110</f>
         <v>550</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F16" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="52">
+        <v>4</v>
+      </c>
+      <c r="H16" s="52">
+        <v>1</v>
+      </c>
+      <c r="I16" s="56">
+        <f>G16*110</f>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="50" t="s">
         <v>41</v>
       </c>
@@ -2338,11 +2428,21 @@
         <f>B17*139</f>
         <v>556</v>
       </c>
-      <c r="G17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F17" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="52">
+        <v>5</v>
+      </c>
+      <c r="H17" s="52">
+        <v>5</v>
+      </c>
+      <c r="I17" s="56">
+        <f>G17*139</f>
+        <v>695</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="50" t="s">
         <v>42</v>
       </c>
@@ -2356,8 +2456,21 @@
         <f>B18*129</f>
         <v>516</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F18" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="52">
+        <v>5</v>
+      </c>
+      <c r="H18" s="52">
+        <v>10</v>
+      </c>
+      <c r="I18" s="56">
+        <f>G18*129</f>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="50" t="s">
         <v>52</v>
       </c>
@@ -2371,8 +2484,21 @@
         <f>B19*129</f>
         <v>387</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="52">
+        <v>4</v>
+      </c>
+      <c r="H19" s="52">
+        <v>12</v>
+      </c>
+      <c r="I19" s="56">
+        <f>G19*129</f>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="50" t="s">
         <v>44</v>
       </c>
@@ -2386,8 +2512,21 @@
         <f>B20*150</f>
         <v>600</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="52">
+        <v>4</v>
+      </c>
+      <c r="H20" s="58">
+        <v>24</v>
+      </c>
+      <c r="I20" s="56">
+        <f>G20*150</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>18</v>
       </c>
@@ -2400,24 +2539,41 @@
         <f>SUM(D16:D20)</f>
         <v>2609</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F21" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="60">
+        <f>SUM(G16:G20)</f>
+        <v>22</v>
+      </c>
+      <c r="H21" s="60"/>
+      <c r="I21" s="61">
+        <f>SUM(I16:I20)</f>
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26786171</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/budget/budget2024.xlsx
+++ b/budget/budget2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felicia/Desktop/lillekat.github.io/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1740AB04-0AD1-DD41-B2D7-7F093DFE2495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECF16AC-C67C-D54D-8632-382ED780408D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="500" windowWidth="22860" windowHeight="9800" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
+    <workbookView xWindow="-1500" yWindow="500" windowWidth="26880" windowHeight="14120" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="80">
   <si>
     <t>Lillekat 2022 budget</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Nr. til bestilling</t>
   </si>
   <si>
-    <t>Lillekat 2024 budget</t>
-  </si>
-  <si>
     <t>Lillekat2024-01</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t xml:space="preserve">Skinke </t>
   </si>
   <si>
-    <t>nr til besilling</t>
-  </si>
-  <si>
     <t>penge på pizza</t>
   </si>
   <si>
@@ -209,18 +203,110 @@
     <t>Lillekat2024 D-Pop</t>
   </si>
   <si>
-    <t xml:space="preserve">det blev faktisk kun 1670 </t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Lillekat2024-05 normale pizzaer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lillekat2024-02 store pizzaer </t>
+  </si>
+  <si>
+    <t>Lille Kat 2024-autumn</t>
+  </si>
+  <si>
+    <t>Lille Kat 2024-Spring</t>
+  </si>
+  <si>
+    <t>Lillekat 2024 Spring budget</t>
+  </si>
+  <si>
+    <t>PIZZA</t>
+  </si>
+  <si>
+    <t>Lillekat 2024 Autumn budget</t>
+  </si>
+  <si>
+    <t>Lillekat 2024-06</t>
+  </si>
+  <si>
+    <t>Lillekat 2024-07</t>
+  </si>
+  <si>
+    <t>Lillekat 2024-08</t>
+  </si>
+  <si>
+    <t>Lillekat 2024-09</t>
+  </si>
+  <si>
+    <t>Lillekat 2024-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snacks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza </t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>DDSA Budget</t>
+  </si>
+  <si>
+    <t>Type of Expense</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event materials </t>
+  </si>
+  <si>
+    <t>overskud fra sidste semester</t>
+  </si>
+  <si>
+    <t>start kapital</t>
+  </si>
+  <si>
+    <t>Event material</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">DDSA </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Event Material</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;kr.&quot;_-;\-* #,##0.00\ &quot;kr.&quot;_-;_-* &quot;-&quot;??\ &quot;kr.&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;kr.&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0\ &quot;kr.&quot;"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -302,6 +388,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -659,7 +763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -738,6 +842,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,6 +884,16 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -781,6 +901,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6768"/>
+      <color rgb="FFFF405D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1108,26 +1234,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
     </row>
     <row r="3" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -1312,10 +1438,10 @@
     </row>
     <row r="10" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="22" t="s">
         <v>17</v>
       </c>
@@ -1456,10 +1582,10 @@
     </row>
     <row r="23" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="65"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="22" t="s">
         <v>17</v>
       </c>
@@ -1611,7 +1737,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView zoomScale="114" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1630,26 +1756,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
     </row>
     <row r="3" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
@@ -1676,10 +1802,10 @@
       <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="K3" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="69"/>
+      <c r="L3" s="71"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1705,10 +1831,10 @@
         <f>E4*F4</f>
         <v>4500</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="67"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -1895,17 +2021,17 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="K12" s="66" t="s">
+      <c r="K12" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="67"/>
+      <c r="L12" s="69"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="70"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="72"/>
       <c r="K13" s="44" t="s">
         <v>33</v>
       </c>
@@ -2083,10 +2209,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3C72BB-923F-DB4A-A4B9-C9C78647B110}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2099,29 +2225,36 @@
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-    </row>
-    <row r="3" spans="1:10" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="L1" s="77"/>
+    </row>
+    <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="L2" s="77" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -2135,22 +2268,33 @@
         <v>3</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="69"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I3" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="71"/>
+      <c r="M3" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="67"/>
+      <c r="O3" s="72"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="74"/>
+      <c r="T3" s="75"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2">
         <v>45331</v>
@@ -2169,14 +2313,33 @@
         <f>F4+E4</f>
         <v>1475</v>
       </c>
-      <c r="I4" s="66" t="s">
+      <c r="I4" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="67"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4" s="69"/>
+      <c r="M4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="7">
         <v>45345</v>
@@ -2194,7 +2357,7 @@
         <v>2609</v>
       </c>
       <c r="G5" s="33">
-        <f t="shared" ref="G5:G9" si="0">F5+E5</f>
+        <f t="shared" ref="G5:G7" si="0">F5+E5</f>
         <v>4104</v>
       </c>
       <c r="I5" s="44" t="s">
@@ -2203,10 +2366,36 @@
       <c r="J5" s="48">
         <v>12000</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="23">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="24">
+        <f>M5*110</f>
+        <v>550</v>
+      </c>
+      <c r="Q5" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="52">
+        <v>4</v>
+      </c>
+      <c r="S5" s="52">
+        <v>1</v>
+      </c>
+      <c r="T5" s="56">
+        <f>R5*65</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="7">
         <v>45366</v>
@@ -2224,16 +2413,43 @@
         <v>11</v>
       </c>
       <c r="G6" s="33"/>
-      <c r="I6" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I6" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="46">
+        <f>SUM(J5:J5)</f>
+        <v>12000</v>
+      </c>
+      <c r="L6" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="23">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6" s="24">
+        <f>M6*139</f>
+        <v>556</v>
+      </c>
+      <c r="Q6" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="52">
+        <v>5</v>
+      </c>
+      <c r="S6" s="52">
+        <v>5</v>
+      </c>
+      <c r="T6" s="56">
+        <f>R6*79</f>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="7">
         <v>45387</v>
@@ -2252,16 +2468,36 @@
         <f t="shared" si="0"/>
         <v>3233</v>
       </c>
-      <c r="I7" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L7" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="23">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+      <c r="O7" s="24">
+        <f>M7*129</f>
+        <v>516</v>
+      </c>
+      <c r="Q7" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" s="52">
+        <v>5</v>
+      </c>
+      <c r="S7" s="52">
+        <v>10</v>
+      </c>
+      <c r="T7" s="56">
+        <f>R7*75</f>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" s="7">
         <v>45401</v>
@@ -2274,16 +2510,40 @@
         <v>11</v>
       </c>
       <c r="G8" s="33"/>
-      <c r="I8" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I8" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="63"/>
+      <c r="L8" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="23">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>12</v>
+      </c>
+      <c r="O8" s="24">
+        <f>M8*129</f>
+        <v>387</v>
+      </c>
+      <c r="Q8" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="52">
+        <v>4</v>
+      </c>
+      <c r="S8" s="52">
+        <v>12</v>
+      </c>
+      <c r="T8" s="56">
+        <f>R8*75</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="7">
         <v>45415</v>
@@ -2302,14 +2562,38 @@
         <f>F9+E9</f>
         <v>1670</v>
       </c>
-      <c r="I9" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="43"/>
+      <c r="L9" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="23">
+        <v>4</v>
+      </c>
+      <c r="N9" s="25">
+        <v>24</v>
+      </c>
+      <c r="O9" s="24">
+        <f>M9*150</f>
+        <v>600</v>
+      </c>
+      <c r="Q9" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="R9" s="52">
+        <v>4</v>
+      </c>
+      <c r="S9" s="58">
+        <v>24</v>
+      </c>
+      <c r="T9" s="56">
+        <f>R9*85</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
@@ -2334,15 +2618,36 @@
         <f>SUM(G4:G9)</f>
         <v>10482</v>
       </c>
-      <c r="I10" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="46">
-        <f>SUM(J5:J9)</f>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="43"/>
+      <c r="L10" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="29">
+        <f>SUM(M5:M9)</f>
+        <v>20</v>
+      </c>
+      <c r="N10" s="30"/>
+      <c r="O10" s="31">
+        <f>SUM(O5:O9)</f>
+        <v>2609</v>
+      </c>
+      <c r="Q10" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="60">
+        <f>SUM(R5:R9)</f>
+        <v>22</v>
+      </c>
+      <c r="S10" s="60"/>
+      <c r="T10" s="61">
+        <f>SUM(T5:T9)</f>
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="35"/>
@@ -2350,231 +2655,505 @@
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="70"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="71" t="s">
+      <c r="I11" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="76">
+        <f>E10</f>
+        <v>6203</v>
+      </c>
+      <c r="T11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="76">
+        <f>F10</f>
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="39">
+        <f>SUM(J9:J12)</f>
+        <v>10482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="37">
+        <f>J6-J13</f>
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+    </row>
+    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="72"/>
-      <c r="I14" s="73"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="23">
+      <c r="F18" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45548</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="33"/>
+      <c r="I19" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="71"/>
+    </row>
+    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="7">
+        <v>45562</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="33"/>
+      <c r="I20" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="69"/>
+    </row>
+    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="7">
+        <v>45576</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="33"/>
+      <c r="I21" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="48">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="7">
+        <v>45590</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="33"/>
+      <c r="I22" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="48">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="7">
+        <v>45594</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="33"/>
+      <c r="I23" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="80">
+        <f>J15</f>
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="35">
+        <f>SUM(C19:C23)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="20">
+        <f>SUM(D19:D23)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="21">
+        <f>SUM(E19:E23)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="21">
+        <f>SUM(F19:F23)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="21">
+        <f>SUM(G19:G23)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="46">
+        <f>SUM(J21:J23)</f>
+        <v>63518</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="I26" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="69"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I27" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="43"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I28" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="43"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I29" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="76">
+        <f>E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I30" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="76">
+        <f>F24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I31" s="44"/>
+      <c r="J31" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I32" s="42"/>
+      <c r="J32" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="78">
+        <f>G24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="37">
+        <f>J24-J33</f>
+        <v>63518</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+    </row>
+    <row r="38" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+    </row>
+    <row r="39" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="24">
-        <f>B16*110</f>
-        <v>550</v>
-      </c>
-      <c r="F16" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="52">
-        <v>4</v>
-      </c>
-      <c r="H16" s="52">
-        <v>1</v>
-      </c>
-      <c r="I16" s="56">
-        <f>G16*110</f>
-        <v>440</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="23">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17" s="24">
-        <f>B17*139</f>
-        <v>556</v>
-      </c>
-      <c r="F17" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="52">
-        <v>5</v>
-      </c>
-      <c r="H17" s="52">
-        <v>5</v>
-      </c>
-      <c r="I17" s="56">
-        <f>G17*139</f>
-        <v>695</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="23">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18" s="24">
-        <f>B18*129</f>
-        <v>516</v>
-      </c>
-      <c r="F18" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="52">
-        <v>5</v>
-      </c>
-      <c r="H18" s="52">
-        <v>10</v>
-      </c>
-      <c r="I18" s="56">
-        <f>G18*129</f>
-        <v>645</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="23">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>12</v>
-      </c>
-      <c r="D19" s="24">
-        <f>B19*129</f>
-        <v>387</v>
-      </c>
-      <c r="F19" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="52">
-        <v>4</v>
-      </c>
-      <c r="H19" s="52">
-        <v>12</v>
-      </c>
-      <c r="I19" s="56">
-        <f>G19*129</f>
-        <v>516</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="23">
-        <v>4</v>
-      </c>
-      <c r="C20" s="25">
-        <v>24</v>
-      </c>
-      <c r="D20" s="24">
-        <f>B20*150</f>
-        <v>600</v>
-      </c>
-      <c r="F20" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="52">
-        <v>4</v>
-      </c>
-      <c r="H20" s="58">
-        <v>24</v>
-      </c>
-      <c r="I20" s="56">
-        <f>G20*150</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="C39" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="49"/>
+      <c r="G39" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="29">
-        <f>SUM(B16:B20)</f>
-        <v>20</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31">
-        <f>SUM(D16:D20)</f>
-        <v>2609</v>
-      </c>
-      <c r="F21" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="60">
-        <f>SUM(G16:G20)</f>
+      <c r="I39" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="J39" s="71"/>
+    </row>
+    <row r="40" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="4"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="33"/>
+      <c r="I40" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40" s="69"/>
+    </row>
+    <row r="41" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="33"/>
+      <c r="I41" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="J41" s="48">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="33"/>
+      <c r="I42" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="J42" s="48">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="33"/>
+      <c r="I43" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="J43" s="80">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="33"/>
+      <c r="I44" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="46">
+        <f>SUM(J41:J43)</f>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="20"/>
+      <c r="C45" s="79">
+        <f>SUM(C40:C44)</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="79">
+        <f>SUM(D40:D44)</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="21">
+        <f>SUM(E40:E44)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="21">
+        <f>SUM(F40:F44)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="21">
+        <f>SUM(G40:G44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="21"/>
+      <c r="I46" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="60"/>
-      <c r="I21" s="61">
-        <f>SUM(I16:I20)</f>
-        <v>2896</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="I22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>26786171</v>
-      </c>
-    </row>
+      <c r="J46" s="69"/>
+    </row>
+    <row r="47" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="I47" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" s="43"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I48" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="J48" s="43"/>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I49" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="J49" s="76">
+        <f>E44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I50" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="J50" s="76">
+        <f>F44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="78">
+        <f>G44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="9:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J53" s="37">
+        <f>J44-J51</f>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="54" spans="9:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:G2"/>
+  <mergeCells count="13">
+    <mergeCell ref="A37:G38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A16:G17"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="R3:T3"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/budget/budget2024.xlsx
+++ b/budget/budget2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felicia/Desktop/lillekat.github.io/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECF16AC-C67C-D54D-8632-382ED780408D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF361484-E373-CB45-B758-D3095FC37C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1500" yWindow="500" windowWidth="26880" windowHeight="14120" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26880" windowHeight="14120" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="83">
   <si>
     <t>Lillekat 2022 budget</t>
   </si>
@@ -294,7 +294,16 @@
     </r>
   </si>
   <si>
-    <t>Event Material</t>
+    <t>stickers (125 stk.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tilbage fra hver afdeling af grant: </t>
+  </si>
+  <si>
+    <t>DDSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Materiale </t>
   </si>
 </sst>
 </file>
@@ -763,7 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -848,6 +857,22 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -884,13 +909,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1234,26 +1252,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
     </row>
     <row r="3" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -1438,10 +1456,10 @@
     </row>
     <row r="10" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="22" t="s">
         <v>17</v>
       </c>
@@ -1582,10 +1600,10 @@
     </row>
     <row r="23" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="67"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="22" t="s">
         <v>17</v>
       </c>
@@ -1756,26 +1774,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
     </row>
     <row r="3" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
@@ -1802,10 +1820,10 @@
       <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="71"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1831,10 +1849,10 @@
         <f>E4*F4</f>
         <v>4500</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="69"/>
+      <c r="L4" s="81"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -2021,17 +2039,17 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="K12" s="68" t="s">
+      <c r="K12" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="69"/>
+      <c r="L12" s="81"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="72"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="84"/>
       <c r="K13" s="44" t="s">
         <v>33</v>
       </c>
@@ -2209,10 +2227,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3C72BB-923F-DB4A-A4B9-C9C78647B110}">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2225,32 +2243,32 @@
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="28.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="L1" s="77"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="L1" s="65"/>
     </row>
     <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="L2" s="77" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="L2" s="65" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2276,21 +2294,21 @@
       <c r="G3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="70" t="s">
+      <c r="I3" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="71"/>
-      <c r="M3" s="66" t="s">
+      <c r="J3" s="83"/>
+      <c r="M3" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="67"/>
-      <c r="O3" s="72"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="84"/>
       <c r="Q3" s="52"/>
-      <c r="R3" s="73" t="s">
+      <c r="R3" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="74"/>
-      <c r="T3" s="75"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2313,10 +2331,10 @@
         <f>F4+E4</f>
         <v>1475</v>
       </c>
-      <c r="I4" s="68" t="s">
+      <c r="I4" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="69"/>
+      <c r="J4" s="81"/>
       <c r="M4" s="22" t="s">
         <v>38</v>
       </c>
@@ -2658,7 +2676,7 @@
       <c r="I11" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="76">
+      <c r="J11" s="64">
         <f>E10</f>
         <v>6203</v>
       </c>
@@ -2670,7 +2688,7 @@
       <c r="I12" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="76">
+      <c r="J12" s="64">
         <f>F10</f>
         <v>4279</v>
       </c>
@@ -2695,24 +2713,24 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
     </row>
     <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
@@ -2748,10 +2766,10 @@
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
       <c r="G19" s="33"/>
-      <c r="I19" s="70" t="s">
+      <c r="I19" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="71"/>
+      <c r="J19" s="83"/>
     </row>
     <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2764,10 +2782,10 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="33"/>
-      <c r="I20" s="68" t="s">
+      <c r="I20" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="69"/>
+      <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -2819,7 +2837,7 @@
       <c r="I23" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="J23" s="80">
+      <c r="J23" s="68">
         <f>J15</f>
         <v>1518</v>
       </c>
@@ -2867,16 +2885,19 @@
       <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="I26" s="68" t="s">
+      <c r="I26" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="69"/>
+      <c r="J26" s="81"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I27" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="J27" s="43"/>
+      <c r="J27" s="69">
+        <f>E45</f>
+        <v>492.91</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I28" s="44" t="s">
@@ -2888,7 +2909,7 @@
       <c r="I29" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="J29" s="76">
+      <c r="J29" s="64">
         <f>E24</f>
         <v>0</v>
       </c>
@@ -2897,7 +2918,7 @@
       <c r="I30" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="J30" s="76">
+      <c r="J30" s="64">
         <f>F24</f>
         <v>0</v>
       </c>
@@ -2918,9 +2939,9 @@
       <c r="I33" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J33" s="78">
-        <f>G24</f>
-        <v>0</v>
+      <c r="J33" s="66">
+        <f>J27+J28+J29+J30+J31+J32</f>
+        <v>492.91</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -2930,29 +2951,29 @@
       </c>
       <c r="J35" s="37">
         <f>J24-J33</f>
-        <v>63518</v>
+        <v>63025.09</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="64" t="s">
+      <c r="A37" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
     </row>
     <row r="38" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
     </row>
     <row r="39" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
@@ -2970,38 +2991,51 @@
       <c r="E39" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="49"/>
-      <c r="G39" s="17" t="s">
+      <c r="F39" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="81" t="s">
+      <c r="H39" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="71"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="72" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="40" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45524</v>
+      </c>
       <c r="C40" s="4"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="33"/>
-      <c r="I40" s="68" t="s">
+      <c r="E40" s="51">
+        <v>492.91</v>
+      </c>
+      <c r="F40" s="33"/>
+      <c r="H40" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="J40" s="69"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="72" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="41" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="7"/>
       <c r="C41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="33"/>
-      <c r="I41" s="44" t="s">
+      <c r="F41" s="33"/>
+      <c r="H41" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="J41" s="48">
+      <c r="I41" s="48">
+        <v>12000</v>
+      </c>
+      <c r="J41" s="73">
+        <f>I41-I47</f>
         <v>12000</v>
       </c>
     </row>
@@ -3010,12 +3044,15 @@
       <c r="B42" s="7"/>
       <c r="C42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="33"/>
-      <c r="I42" s="44" t="s">
+      <c r="F42" s="33"/>
+      <c r="H42" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="J42" s="48">
+      <c r="I42" s="48">
+        <v>15000</v>
+      </c>
+      <c r="J42" s="73">
+        <f>I42-I48</f>
         <v>15000</v>
       </c>
     </row>
@@ -3024,13 +3061,16 @@
       <c r="B43" s="7"/>
       <c r="C43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="33"/>
-      <c r="I43" s="44" t="s">
+      <c r="F43" s="33"/>
+      <c r="H43" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="J43" s="80">
+      <c r="I43" s="68">
         <v>5000</v>
+      </c>
+      <c r="J43" s="70">
+        <f>I43-I49</f>
+        <v>4507.09</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3038,39 +3078,35 @@
       <c r="B44" s="7"/>
       <c r="C44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="33"/>
-      <c r="I44" s="40" t="s">
+      <c r="F44" s="33"/>
+      <c r="H44" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J44" s="46">
-        <f>SUM(J41:J43)</f>
+      <c r="I44" s="46">
+        <f>SUM(I41:I43)</f>
         <v>32000</v>
       </c>
+      <c r="J44" s="73"/>
     </row>
     <row r="45" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="20"/>
-      <c r="C45" s="79">
+      <c r="C45" s="67">
         <f>SUM(C40:C44)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="79">
+      <c r="D45" s="67">
         <f>SUM(D40:D44)</f>
         <v>0</v>
       </c>
       <c r="E45" s="21">
         <f>SUM(E40:E44)</f>
-        <v>0</v>
+        <v>492.91</v>
       </c>
       <c r="F45" s="21">
         <f>SUM(F40:F44)</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="21">
-        <f>SUM(G40:G44)</f>
         <v>0</v>
       </c>
     </row>
@@ -3080,78 +3116,74 @@
       <c r="C46" s="35"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="21"/>
-      <c r="I46" s="68" t="s">
+      <c r="F46" s="21"/>
+      <c r="H46" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="J46" s="69"/>
+      <c r="I46" s="81"/>
     </row>
     <row r="47" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="I47" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="J47" s="43"/>
+      <c r="H47" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="I47" s="74">
+        <f>C45</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I48" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="J48" s="43"/>
-    </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I49" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="J49" s="76">
-        <f>E44</f>
+      <c r="H48" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="I48" s="74">
+        <f>D45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I50" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="J50" s="76">
-        <f>F44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="9:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I51" s="40" t="s">
+    <row r="49" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H49" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="I49" s="71">
+        <f>E45</f>
+        <v>492.91</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J51" s="78">
-        <f>G44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="9:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="9:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I53" s="38" t="s">
+      <c r="I50" s="75">
+        <f>I47+I49+I48</f>
+        <v>492.91</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="8:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="J53" s="37">
-        <f>J44-J51</f>
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="54" spans="9:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="I52" s="37">
+        <f>I44-I50</f>
+        <v>31507.09</v>
+      </c>
+    </row>
+    <row r="53" spans="8:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A37:G38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H46:I46"/>
     <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="A16:G17"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/budget/budget2024.xlsx
+++ b/budget/budget2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felicia/Desktop/lillekat.github.io/budget/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felicia/Desktop/old_lillekat/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF361484-E373-CB45-B758-D3095FC37C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86701F3E-06B3-864D-AFD2-5375B5E47FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26880" windowHeight="14120" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
+    <workbookView xWindow="1480" yWindow="500" windowWidth="26880" windowHeight="14120" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="88">
   <si>
     <t>Lillekat 2022 budget</t>
   </si>
@@ -304,6 +304,21 @@
   </si>
   <si>
     <t xml:space="preserve">Event Materiale </t>
+  </si>
+  <si>
+    <t>pizza 2024:06</t>
+  </si>
+  <si>
+    <t>Lillekat2024-06 normale pizzaer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nemlig snacks 06 </t>
+  </si>
+  <si>
+    <t>nemlig snacks 07</t>
+  </si>
+  <si>
+    <t>pizza 2024:07</t>
   </si>
 </sst>
 </file>
@@ -900,6 +915,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -907,9 +925,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1754,7 +1769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B219F9F2-A4CC-AD4F-A3F1-917E919B80E2}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="116" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="114" zoomScaleNormal="116" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -2227,10 +2242,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3C72BB-923F-DB4A-A4B9-C9C78647B110}">
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:AD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2248,7 +2263,7 @@
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
         <v>60</v>
       </c>
@@ -2260,7 +2275,7 @@
       <c r="G1" s="76"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="77"/>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -2272,7 +2287,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -2304,13 +2319,24 @@
       <c r="N3" s="79"/>
       <c r="O3" s="84"/>
       <c r="Q3" s="52"/>
-      <c r="R3" s="85" t="s">
+      <c r="R3" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="86"/>
-      <c r="T3" s="87"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S3" s="87"/>
+      <c r="T3" s="88"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="88"/>
+      <c r="AB3" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="84"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -2354,8 +2380,27 @@
       <c r="T4" s="54" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V4" s="52"/>
+      <c r="W4" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y4" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD4" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>50</v>
       </c>
@@ -2410,8 +2455,34 @@
         <f>R5*65</f>
         <v>260</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="52">
+        <v>7</v>
+      </c>
+      <c r="X5" s="52">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="56">
+        <f>W5*75</f>
+        <v>525</v>
+      </c>
+      <c r="AA5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="23">
+        <v>5</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="24">
+        <f>AB5*140</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -2464,8 +2535,34 @@
         <f>R6*79</f>
         <v>395</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="V6" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="W6" s="52">
+        <v>7</v>
+      </c>
+      <c r="X6" s="52">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="56">
+        <f>W6*85</f>
+        <v>595</v>
+      </c>
+      <c r="AA6" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB6" s="23">
+        <v>4</v>
+      </c>
+      <c r="AC6">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="24">
+        <f>AB6*160</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>47</v>
       </c>
@@ -2512,8 +2609,34 @@
         <f>R7*75</f>
         <v>375</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V7" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" s="52">
+        <v>5</v>
+      </c>
+      <c r="X7" s="52">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="56">
+        <f>W7*80</f>
+        <v>400</v>
+      </c>
+      <c r="AA7" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB7" s="23">
+        <v>3</v>
+      </c>
+      <c r="AC7">
+        <v>10</v>
+      </c>
+      <c r="AD7" s="24">
+        <f>AB7*150</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>54</v>
       </c>
@@ -2558,8 +2681,34 @@
         <f>R8*75</f>
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V8" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="W8" s="52">
+        <v>5</v>
+      </c>
+      <c r="X8" s="52">
+        <v>12</v>
+      </c>
+      <c r="Y8" s="56">
+        <f>W8*80</f>
+        <v>400</v>
+      </c>
+      <c r="AA8" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB8" s="23">
+        <v>3</v>
+      </c>
+      <c r="AC8">
+        <v>12</v>
+      </c>
+      <c r="AD8" s="24">
+        <f>AB8*150</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>48</v>
       </c>
@@ -2610,8 +2759,34 @@
         <f>R9*85</f>
         <v>340</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V9" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="52">
+        <v>4</v>
+      </c>
+      <c r="X9" s="58">
+        <v>24</v>
+      </c>
+      <c r="Y9" s="56">
+        <f>W9*90</f>
+        <v>360</v>
+      </c>
+      <c r="AA9" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB9" s="23">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="25">
+        <v>24</v>
+      </c>
+      <c r="AD9" s="24">
+        <f>AB9*170</f>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
@@ -2664,8 +2839,32 @@
         <f>SUM(T5:T9)</f>
         <v>1670</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V10" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="W10" s="60">
+        <f>SUM(W5:W9)</f>
+        <v>28</v>
+      </c>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="61">
+        <f>SUM(Y5:Y9)</f>
+        <v>2280</v>
+      </c>
+      <c r="AA10" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB10" s="29">
+        <f>SUM(AB5:AB9)</f>
+        <v>18</v>
+      </c>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="31">
+        <f>SUM(AD5:AD9)</f>
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="35"/>
@@ -2684,7 +2883,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="I12" s="44" t="s">
         <v>69</v>
       </c>
@@ -2693,7 +2892,7 @@
         <v>4279</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I13" s="40" t="s">
         <v>14</v>
       </c>
@@ -2702,8 +2901,8 @@
         <v>10482</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I15" s="38" t="s">
         <v>26</v>
       </c>
@@ -2712,7 +2911,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A16" s="76" t="s">
         <v>62</v>
       </c>
@@ -2760,11 +2959,20 @@
         <v>63</v>
       </c>
       <c r="B19" s="2">
-        <v>45548</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
+        <v>45555</v>
+      </c>
+      <c r="C19" s="4">
+        <v>64</v>
+      </c>
+      <c r="D19">
+        <v>157</v>
+      </c>
+      <c r="E19" s="51">
+        <v>3510.6</v>
+      </c>
+      <c r="F19" s="51">
+        <v>2280</v>
+      </c>
       <c r="G19" s="33"/>
       <c r="I19" s="82" t="s">
         <v>58</v>
@@ -2778,9 +2986,18 @@
       <c r="B20" s="7">
         <v>45562</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="C20" s="4">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>79</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3305</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2750</v>
+      </c>
       <c r="G20" s="33"/>
       <c r="I20" s="80" t="s">
         <v>25</v>
@@ -2849,19 +3066,19 @@
       <c r="B24" s="20"/>
       <c r="C24" s="35">
         <f>SUM(C19:C23)</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D24" s="20">
         <f>SUM(D19:D23)</f>
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="E24" s="21">
         <f>SUM(E19:E23)</f>
-        <v>0</v>
+        <v>6815.6</v>
       </c>
       <c r="F24" s="21">
         <f>SUM(F19:F23)</f>
-        <v>0</v>
+        <v>5030</v>
       </c>
       <c r="G24" s="21">
         <f>SUM(G19:G23)</f>
@@ -2911,7 +3128,7 @@
       </c>
       <c r="J29" s="64">
         <f>E24</f>
-        <v>0</v>
+        <v>6815.6</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -2920,7 +3137,7 @@
       </c>
       <c r="J30" s="64">
         <f>F24</f>
-        <v>0</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2941,7 +3158,7 @@
       </c>
       <c r="J33" s="66">
         <f>J27+J28+J29+J30+J31+J32</f>
-        <v>492.91</v>
+        <v>12338.51</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -2951,7 +3168,7 @@
       </c>
       <c r="J35" s="37">
         <f>J24-J33</f>
-        <v>63025.09</v>
+        <v>51179.49</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -2994,7 +3211,7 @@
       <c r="F39" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="88" t="s">
+      <c r="H39" s="85" t="s">
         <v>78</v>
       </c>
       <c r="I39" s="83"/>
@@ -3023,9 +3240,15 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="4"/>
+      <c r="A41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="7">
+        <v>45553</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3510.6</v>
+      </c>
       <c r="E41" s="4"/>
       <c r="F41" s="33"/>
       <c r="H41" s="44" t="s">
@@ -3036,13 +3259,20 @@
       </c>
       <c r="J41" s="73">
         <f>I41-I47</f>
-        <v>12000</v>
+        <v>5184.3999999999996</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="7">
+        <v>45555</v>
+      </c>
       <c r="C42" s="4"/>
+      <c r="D42">
+        <v>2280</v>
+      </c>
       <c r="E42" s="4"/>
       <c r="F42" s="33"/>
       <c r="H42" s="44" t="s">
@@ -3053,13 +3283,19 @@
       </c>
       <c r="J42" s="73">
         <f>I42-I48</f>
-        <v>15000</v>
+        <v>9970</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="4"/>
+      <c r="A43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="7">
+        <v>45560</v>
+      </c>
+      <c r="C43" s="4">
+        <v>3305</v>
+      </c>
       <c r="E43" s="4"/>
       <c r="F43" s="33"/>
       <c r="H43" s="44" t="s">
@@ -3074,9 +3310,16 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="7">
+        <v>45562</v>
+      </c>
       <c r="C44" s="4"/>
+      <c r="D44">
+        <v>2750</v>
+      </c>
       <c r="E44" s="4"/>
       <c r="F44" s="33"/>
       <c r="H44" s="40" t="s">
@@ -3095,11 +3338,11 @@
       <c r="B45" s="20"/>
       <c r="C45" s="67">
         <f>SUM(C40:C44)</f>
-        <v>0</v>
+        <v>6815.6</v>
       </c>
       <c r="D45" s="67">
         <f>SUM(D40:D44)</f>
-        <v>0</v>
+        <v>5030</v>
       </c>
       <c r="E45" s="21">
         <f>SUM(E40:E44)</f>
@@ -3128,7 +3371,7 @@
       </c>
       <c r="I47" s="74">
         <f>C45</f>
-        <v>0</v>
+        <v>6815.6</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -3137,7 +3380,7 @@
       </c>
       <c r="I48" s="74">
         <f>D45</f>
-        <v>0</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.2">
@@ -3155,7 +3398,7 @@
       </c>
       <c r="I50" s="75">
         <f>I47+I49+I48</f>
-        <v>492.91</v>
+        <v>12338.51</v>
       </c>
     </row>
     <row r="51" spans="8:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -3165,17 +3408,14 @@
       </c>
       <c r="I52" s="37">
         <f>I44-I50</f>
-        <v>31507.09</v>
+        <v>19661.489999999998</v>
       </c>
     </row>
     <row r="53" spans="8:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A37:G38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="I26:J26"/>
+  <mergeCells count="15">
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="W3:Y3"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="R3:T3"/>
@@ -3184,6 +3424,11 @@
     <mergeCell ref="A16:G17"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A37:G38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="I26:J26"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/budget/budget2024.xlsx
+++ b/budget/budget2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felicia/Desktop/old_lillekat/budget/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felicia/lillekat.github.io/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86701F3E-06B3-864D-AFD2-5375B5E47FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43812721-013D-B244-A7F0-A7AF578B812C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="500" windowWidth="26880" windowHeight="14120" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>Lillekat 2022 budget</t>
   </si>
@@ -319,6 +319,18 @@
   </si>
   <si>
     <t>pizza 2024:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lillekat2024-07 store pizzaer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lillekat2024-08 store pizzaer </t>
+  </si>
+  <si>
+    <t>trøffel</t>
+  </si>
+  <si>
+    <t>pizza 2024:08</t>
   </si>
 </sst>
 </file>
@@ -787,7 +799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -888,6 +900,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1267,26 +1281,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -1471,10 +1485,10 @@
     </row>
     <row r="10" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="79"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="22" t="s">
         <v>17</v>
       </c>
@@ -1615,10 +1629,10 @@
     </row>
     <row r="23" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="79"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="22" t="s">
         <v>17</v>
       </c>
@@ -1789,26 +1803,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
@@ -1835,10 +1849,10 @@
       <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="82" t="s">
+      <c r="K3" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="83"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1864,10 +1878,10 @@
         <f>E4*F4</f>
         <v>4500</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="81"/>
+      <c r="L4" s="83"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -2054,17 +2068,17 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="K12" s="80" t="s">
+      <c r="K12" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="81"/>
+      <c r="L12" s="83"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="84"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="86"/>
       <c r="K13" s="44" t="s">
         <v>33</v>
       </c>
@@ -2242,10 +2256,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3C72BB-923F-DB4A-A4B9-C9C78647B110}">
-  <dimension ref="A1:AD53"/>
+  <dimension ref="A1:AI53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2263,31 +2277,31 @@
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:35" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:30" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
+    <row r="2" spans="1:35" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
       <c r="L2" s="65" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -2309,34 +2323,39 @@
       <c r="G3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="83"/>
-      <c r="M3" s="78" t="s">
+      <c r="J3" s="85"/>
+      <c r="M3" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="79"/>
-      <c r="O3" s="84"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="86"/>
       <c r="Q3" s="52"/>
-      <c r="R3" s="86" t="s">
+      <c r="R3" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="87"/>
-      <c r="T3" s="88"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="90"/>
       <c r="V3" s="52"/>
-      <c r="W3" s="86" t="s">
+      <c r="W3" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="88"/>
-      <c r="AB3" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="84"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="X3" s="89"/>
+      <c r="Y3" s="90"/>
+      <c r="AB3" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="86"/>
+      <c r="AG3" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="86"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -2357,10 +2376,10 @@
         <f>F4+E4</f>
         <v>1475</v>
       </c>
-      <c r="I4" s="80" t="s">
+      <c r="I4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="81"/>
+      <c r="J4" s="83"/>
       <c r="M4" s="22" t="s">
         <v>38</v>
       </c>
@@ -2399,8 +2418,17 @@
       <c r="AD4" s="22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AG4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI4" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>50</v>
       </c>
@@ -2481,8 +2509,21 @@
         <f>AB5*140</f>
         <v>700</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AF5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG5" s="23">
+        <v>5</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="24">
+        <f>AG5*140</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -2561,8 +2602,21 @@
         <f>AB6*160</f>
         <v>640</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AF6" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG6" s="23">
+        <v>3</v>
+      </c>
+      <c r="AH6">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="24">
+        <f>AG6*160</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>47</v>
       </c>
@@ -2635,8 +2689,21 @@
         <f>AB7*150</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF7" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG7" s="23">
+        <v>3</v>
+      </c>
+      <c r="AH7">
+        <v>10</v>
+      </c>
+      <c r="AI7" s="24">
+        <f>AG7*150</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>54</v>
       </c>
@@ -2707,8 +2774,21 @@
         <f>AB8*150</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF8" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG8" s="23">
+        <v>3</v>
+      </c>
+      <c r="AH8">
+        <v>4</v>
+      </c>
+      <c r="AI8" s="24">
+        <f>AG8*150</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>48</v>
       </c>
@@ -2785,8 +2865,21 @@
         <f>AB9*170</f>
         <v>510</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AF9" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG9" s="23">
+        <v>3</v>
+      </c>
+      <c r="AH9" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI9" s="24">
+        <f>AG9*170</f>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
@@ -2863,8 +2956,20 @@
         <f>SUM(AD5:AD9)</f>
         <v>2750</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AF10" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG10" s="29">
+        <f>SUM(AG5:AG9)</f>
+        <v>17</v>
+      </c>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="31">
+        <f>SUM(AI5:AI9)</f>
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="35"/>
@@ -2883,7 +2988,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="I12" s="44" t="s">
         <v>69</v>
       </c>
@@ -2892,7 +2997,7 @@
         <v>4279</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I13" s="40" t="s">
         <v>14</v>
       </c>
@@ -2901,8 +3006,8 @@
         <v>10482</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I15" s="38" t="s">
         <v>26</v>
       </c>
@@ -2911,25 +3016,25 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="76" t="s">
+    <row r="16" spans="1:35" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
     </row>
     <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
@@ -2974,10 +3079,10 @@
         <v>2280</v>
       </c>
       <c r="G19" s="33"/>
-      <c r="I19" s="82" t="s">
+      <c r="I19" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="83"/>
+      <c r="J19" s="85"/>
     </row>
     <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2999,10 +3104,10 @@
         <v>2750</v>
       </c>
       <c r="G20" s="33"/>
-      <c r="I20" s="80" t="s">
+      <c r="I20" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="81"/>
+      <c r="J20" s="83"/>
     </row>
     <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -3102,10 +3207,10 @@
       <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="I26" s="80" t="s">
+      <c r="I26" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="81"/>
+      <c r="J26" s="83"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I27" s="44" t="s">
@@ -3113,7 +3218,7 @@
       </c>
       <c r="J27" s="69">
         <f>E45</f>
-        <v>492.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -3158,7 +3263,7 @@
       </c>
       <c r="J33" s="66">
         <f>J27+J28+J29+J30+J31+J32</f>
-        <v>12338.51</v>
+        <v>11845.6</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -3168,29 +3273,29 @@
       </c>
       <c r="J35" s="37">
         <f>J24-J33</f>
-        <v>51179.49</v>
+        <v>51672.4</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="76" t="s">
+    <row r="37" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
     </row>
     <row r="38" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="77"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
     </row>
     <row r="39" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
@@ -3211,10 +3316,10 @@
       <c r="F39" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="85" t="s">
+      <c r="H39" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="I39" s="83"/>
+      <c r="I39" s="85"/>
       <c r="J39" s="72" t="s">
         <v>81</v>
       </c>
@@ -3231,10 +3336,10 @@
         <v>492.91</v>
       </c>
       <c r="F40" s="33"/>
-      <c r="H40" s="80" t="s">
+      <c r="H40" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="I40" s="81"/>
+      <c r="I40" s="83"/>
       <c r="J40" s="72" t="s">
         <v>80</v>
       </c>
@@ -3331,68 +3436,92 @@
       </c>
       <c r="J44" s="73"/>
     </row>
-    <row r="45" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+    <row r="45" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="77">
+        <v>45576</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="33"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="76"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="33"/>
+      <c r="H46" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="83"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="76"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="33"/>
+      <c r="H47" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="I47" s="74">
+        <f>C49</f>
+        <v>6815.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="76"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="33"/>
+      <c r="H48" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="I48" s="74">
+        <f>D49</f>
+        <v>5030</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="67">
+      <c r="B49" s="20"/>
+      <c r="C49" s="67">
         <f>SUM(C40:C44)</f>
         <v>6815.6</v>
       </c>
-      <c r="D45" s="67">
+      <c r="D49" s="67">
         <f>SUM(D40:D44)</f>
         <v>5030</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E49" s="21">
         <f>SUM(E40:E44)</f>
         <v>492.91</v>
       </c>
-      <c r="F45" s="21">
-        <f>SUM(F40:F44)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="21"/>
-      <c r="H46" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" s="81"/>
-    </row>
-    <row r="47" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="H47" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="I47" s="74">
-        <f>C45</f>
-        <v>6815.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H48" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="I48" s="74">
-        <f>D45</f>
-        <v>5030</v>
-      </c>
-    </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="F49" s="67">
+        <f>SUM(C49:E49)</f>
+        <v>12338.51</v>
+      </c>
       <c r="H49" s="44" t="s">
         <v>82</v>
       </c>
       <c r="I49" s="71">
-        <f>E45</f>
+        <f>E49</f>
         <v>492.91</v>
       </c>
     </row>
-    <row r="50" spans="8:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="21"/>
       <c r="H50" s="40" t="s">
         <v>14</v>
       </c>
@@ -3401,8 +3530,8 @@
         <v>12338.51</v>
       </c>
     </row>
-    <row r="51" spans="8:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="8:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H52" s="38" t="s">
         <v>26</v>
       </c>
@@ -3411,24 +3540,25 @@
         <v>19661.489999999998</v>
       </c>
     </row>
-    <row r="53" spans="8:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="W3:Y3"/>
+  <mergeCells count="16">
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="R3:T3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A37:G38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="A16:G17"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A37:G38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="W3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/budget/budget2024.xlsx
+++ b/budget/budget2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felicia/lillekat.github.io/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43812721-013D-B244-A7F0-A7AF578B812C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA990FE-CA4D-E442-B8B6-8EE30717AF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="500" windowWidth="26880" windowHeight="14120" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
@@ -929,9 +929,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -939,6 +936,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2258,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3C72BB-923F-DB4A-A4B9-C9C78647B110}">
   <dimension ref="A1:AI53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2333,17 +2333,17 @@
       <c r="N3" s="81"/>
       <c r="O3" s="86"/>
       <c r="Q3" s="52"/>
-      <c r="R3" s="88" t="s">
+      <c r="R3" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="90"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="89"/>
       <c r="V3" s="52"/>
-      <c r="W3" s="88" t="s">
+      <c r="W3" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="90"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="89"/>
       <c r="AB3" s="80" t="s">
         <v>88</v>
       </c>
@@ -3116,9 +3116,18 @@
       <c r="B21" s="7">
         <v>45576</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="C21" s="4">
+        <v>39</v>
+      </c>
+      <c r="D21">
+        <v>66</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2650</v>
+      </c>
       <c r="G21" s="33"/>
       <c r="I21" s="44" t="s">
         <v>24</v>
@@ -3135,7 +3144,9 @@
         <v>45590</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4">
+        <v>1811.77</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="33"/>
       <c r="I22" s="44" t="s">
@@ -3171,19 +3182,19 @@
       <c r="B24" s="20"/>
       <c r="C24" s="35">
         <f>SUM(C19:C23)</f>
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="D24" s="20">
         <f>SUM(D19:D23)</f>
-        <v>236</v>
+        <v>302</v>
       </c>
       <c r="E24" s="21">
         <f>SUM(E19:E23)</f>
-        <v>6815.6</v>
+        <v>8627.3700000000008</v>
       </c>
       <c r="F24" s="21">
         <f>SUM(F19:F23)</f>
-        <v>5030</v>
+        <v>7680</v>
       </c>
       <c r="G24" s="21">
         <f>SUM(G19:G23)</f>
@@ -3233,7 +3244,7 @@
       </c>
       <c r="J29" s="64">
         <f>E24</f>
-        <v>6815.6</v>
+        <v>8627.3700000000008</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -3242,7 +3253,7 @@
       </c>
       <c r="J30" s="64">
         <f>F24</f>
-        <v>5030</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -3263,7 +3274,7 @@
       </c>
       <c r="J33" s="66">
         <f>J27+J28+J29+J30+J31+J32</f>
-        <v>11845.6</v>
+        <v>16307.37</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -3273,7 +3284,7 @@
       </c>
       <c r="J35" s="37">
         <f>J24-J33</f>
-        <v>51672.4</v>
+        <v>47210.63</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -3316,7 +3327,7 @@
       <c r="F39" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="87" t="s">
+      <c r="H39" s="90" t="s">
         <v>78</v>
       </c>
       <c r="I39" s="85"/>
@@ -3364,7 +3375,7 @@
       </c>
       <c r="J41" s="73">
         <f>I41-I47</f>
-        <v>5184.3999999999996</v>
+        <v>3372.6299999999992</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3388,7 +3399,7 @@
       </c>
       <c r="J42" s="73">
         <f>I42-I48</f>
-        <v>9970</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3444,13 +3455,18 @@
         <v>45576</v>
       </c>
       <c r="C45" s="4"/>
+      <c r="D45">
+        <v>2650</v>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="33"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="76"/>
       <c r="B46" s="77"/>
-      <c r="C46" s="4"/>
+      <c r="C46" s="4">
+        <v>1811.77</v>
+      </c>
       <c r="E46" s="4"/>
       <c r="F46" s="33"/>
       <c r="H46" s="82" t="s">
@@ -3469,7 +3485,7 @@
       </c>
       <c r="I47" s="74">
         <f>C49</f>
-        <v>6815.6</v>
+        <v>8627.3700000000008</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -3483,7 +3499,7 @@
       </c>
       <c r="I48" s="74">
         <f>D49</f>
-        <v>5030</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3492,20 +3508,20 @@
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="67">
-        <f>SUM(C40:C44)</f>
-        <v>6815.6</v>
+        <f>SUM(C40:C48)</f>
+        <v>8627.3700000000008</v>
       </c>
       <c r="D49" s="67">
-        <f>SUM(D40:D44)</f>
-        <v>5030</v>
+        <f>SUM(D40:D48)</f>
+        <v>7680</v>
       </c>
       <c r="E49" s="21">
-        <f>SUM(E40:E44)</f>
+        <f>SUM(E40:E48)</f>
         <v>492.91</v>
       </c>
       <c r="F49" s="67">
         <f>SUM(C49:E49)</f>
-        <v>12338.51</v>
+        <v>16800.280000000002</v>
       </c>
       <c r="H49" s="44" t="s">
         <v>82</v>
@@ -3527,7 +3543,7 @@
       </c>
       <c r="I50" s="75">
         <f>I47+I49+I48</f>
-        <v>12338.51</v>
+        <v>16800.28</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -3537,22 +3553,22 @@
       </c>
       <c r="I52" s="37">
         <f>I44-I50</f>
-        <v>19661.489999999998</v>
+        <v>15199.720000000001</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I20:J20"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A37:G38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I20:J20"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="A16:G17"/>
     <mergeCell ref="I3:J3"/>

--- a/budget/budget2024.xlsx
+++ b/budget/budget2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felicia/lillekat.github.io/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA990FE-CA4D-E442-B8B6-8EE30717AF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94F42C4-9D2A-344C-8A1A-89E235981CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="500" windowWidth="26880" windowHeight="14120" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
+    <workbookView xWindow="2540" yWindow="560" windowWidth="26880" windowHeight="11780" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="94">
   <si>
     <t>Lillekat 2022 budget</t>
   </si>
@@ -331,6 +331,12 @@
   </si>
   <si>
     <t>pizza 2024:08</t>
+  </si>
+  <si>
+    <t>pizza 2024:09</t>
+  </si>
+  <si>
+    <t>nemlig snacks 09</t>
   </si>
 </sst>
 </file>
@@ -799,7 +805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -929,6 +935,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -938,9 +947,8 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2258,8 +2266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3C72BB-923F-DB4A-A4B9-C9C78647B110}">
   <dimension ref="A1:AI53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2333,17 +2341,17 @@
       <c r="N3" s="81"/>
       <c r="O3" s="86"/>
       <c r="Q3" s="52"/>
-      <c r="R3" s="87" t="s">
+      <c r="R3" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="88"/>
-      <c r="T3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="90"/>
       <c r="V3" s="52"/>
-      <c r="W3" s="87" t="s">
+      <c r="W3" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="90"/>
       <c r="AB3" s="80" t="s">
         <v>88</v>
       </c>
@@ -3072,10 +3080,10 @@
       <c r="D19">
         <v>157</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="91">
         <v>3510.6</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F19" s="91">
         <v>2280</v>
       </c>
       <c r="G19" s="33"/>
@@ -3143,11 +3151,18 @@
       <c r="B22" s="7">
         <v>45590</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>61</v>
+      </c>
       <c r="E22" s="4">
-        <v>1811.77</v>
-      </c>
-      <c r="F22" s="4"/>
+        <v>1782.78</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2640</v>
+      </c>
       <c r="G22" s="33"/>
       <c r="I22" s="44" t="s">
         <v>27</v>
@@ -3182,19 +3197,19 @@
       <c r="B24" s="20"/>
       <c r="C24" s="35">
         <f>SUM(C19:C23)</f>
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="D24" s="20">
         <f>SUM(D19:D23)</f>
-        <v>302</v>
+        <v>363</v>
       </c>
       <c r="E24" s="21">
         <f>SUM(E19:E23)</f>
-        <v>8627.3700000000008</v>
-      </c>
-      <c r="F24" s="21">
+        <v>8598.380000000001</v>
+      </c>
+      <c r="F24" s="92">
         <f>SUM(F19:F23)</f>
-        <v>7680</v>
+        <v>10320</v>
       </c>
       <c r="G24" s="21">
         <f>SUM(G19:G23)</f>
@@ -3244,7 +3259,7 @@
       </c>
       <c r="J29" s="64">
         <f>E24</f>
-        <v>8627.3700000000008</v>
+        <v>8598.380000000001</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -3253,7 +3268,7 @@
       </c>
       <c r="J30" s="64">
         <f>F24</f>
-        <v>7680</v>
+        <v>10320</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -3274,7 +3289,7 @@
       </c>
       <c r="J33" s="66">
         <f>J27+J28+J29+J30+J31+J32</f>
-        <v>16307.37</v>
+        <v>18918.38</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -3284,7 +3299,7 @@
       </c>
       <c r="J35" s="37">
         <f>J24-J33</f>
-        <v>47210.63</v>
+        <v>44599.619999999995</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -3327,7 +3342,7 @@
       <c r="F39" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="90" t="s">
+      <c r="H39" s="87" t="s">
         <v>78</v>
       </c>
       <c r="I39" s="85"/>
@@ -3375,7 +3390,7 @@
       </c>
       <c r="J41" s="73">
         <f>I41-I47</f>
-        <v>3372.6299999999992</v>
+        <v>3401.619999999999</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3399,7 +3414,7 @@
       </c>
       <c r="J42" s="73">
         <f>I42-I48</f>
-        <v>7320</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3462,10 +3477,14 @@
       <c r="F45" s="33"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="76"/>
-      <c r="B46" s="77"/>
+      <c r="A46" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="77">
+        <v>45589</v>
+      </c>
       <c r="C46" s="4">
-        <v>1811.77</v>
+        <v>1782.78</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="33"/>
@@ -3475,9 +3494,16 @@
       <c r="I46" s="83"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="76"/>
-      <c r="B47" s="77"/>
+      <c r="A47" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="77">
+        <v>45590</v>
+      </c>
       <c r="C47" s="4"/>
+      <c r="D47">
+        <v>2640</v>
+      </c>
       <c r="E47" s="4"/>
       <c r="F47" s="33"/>
       <c r="H47" s="44" t="s">
@@ -3485,7 +3511,7 @@
       </c>
       <c r="I47" s="74">
         <f>C49</f>
-        <v>8627.3700000000008</v>
+        <v>8598.380000000001</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -3499,7 +3525,7 @@
       </c>
       <c r="I48" s="74">
         <f>D49</f>
-        <v>7680</v>
+        <v>10320</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3509,11 +3535,11 @@
       <c r="B49" s="20"/>
       <c r="C49" s="67">
         <f>SUM(C40:C48)</f>
-        <v>8627.3700000000008</v>
+        <v>8598.380000000001</v>
       </c>
       <c r="D49" s="67">
         <f>SUM(D40:D48)</f>
-        <v>7680</v>
+        <v>10320</v>
       </c>
       <c r="E49" s="21">
         <f>SUM(E40:E48)</f>
@@ -3521,7 +3547,7 @@
       </c>
       <c r="F49" s="67">
         <f>SUM(C49:E49)</f>
-        <v>16800.280000000002</v>
+        <v>19411.29</v>
       </c>
       <c r="H49" s="44" t="s">
         <v>82</v>
@@ -3543,7 +3569,7 @@
       </c>
       <c r="I50" s="75">
         <f>I47+I49+I48</f>
-        <v>16800.28</v>
+        <v>19411.29</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -3553,17 +3579,12 @@
       </c>
       <c r="I52" s="37">
         <f>I44-I50</f>
-        <v>15199.720000000001</v>
+        <v>12588.71</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I20:J20"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="R3:T3"/>
@@ -3575,6 +3596,11 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="AB3:AD3"/>
     <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I20:J20"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/budget/budget2024.xlsx
+++ b/budget/budget2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felicia/lillekat.github.io/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94F42C4-9D2A-344C-8A1A-89E235981CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F99464-A91F-8D42-B720-C2C4EB0E0853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="560" windowWidth="26880" windowHeight="11780" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
+    <workbookView xWindow="14600" yWindow="6280" windowWidth="14200" windowHeight="15980" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="98">
   <si>
     <t>Lillekat 2022 budget</t>
   </si>
@@ -337,6 +337,18 @@
   </si>
   <si>
     <t>nemlig snacks 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nemlig snacks 10 </t>
+  </si>
+  <si>
+    <t>pizza 2024:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lillekat2024-09 store pizzaer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lillekat2024-10 store pizzaer </t>
   </si>
 </sst>
 </file>
@@ -908,6 +920,8 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -947,8 +961,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1289,26 +1301,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -1493,10 +1505,10 @@
     </row>
     <row r="10" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="81"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="22" t="s">
         <v>17</v>
       </c>
@@ -1637,10 +1649,10 @@
     </row>
     <row r="23" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="81"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="22" t="s">
         <v>17</v>
       </c>
@@ -1811,26 +1823,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
@@ -1857,10 +1869,10 @@
       <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="84" t="s">
+      <c r="K3" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="85"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1886,10 +1898,10 @@
         <f>E4*F4</f>
         <v>4500</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="83"/>
+      <c r="L4" s="85"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -2076,17 +2088,17 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="K12" s="82" t="s">
+      <c r="K12" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="83"/>
+      <c r="L12" s="85"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="86"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="88"/>
       <c r="K13" s="44" t="s">
         <v>33</v>
       </c>
@@ -2264,10 +2276,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3C72BB-923F-DB4A-A4B9-C9C78647B110}">
-  <dimension ref="A1:AI53"/>
+  <dimension ref="A1:AS54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2285,31 +2297,31 @@
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:45" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:35" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
+    <row r="2" spans="1:45" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
       <c r="L2" s="65" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:45" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -2331,39 +2343,49 @@
       <c r="G3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="85"/>
-      <c r="M3" s="80" t="s">
+      <c r="J3" s="87"/>
+      <c r="M3" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="86"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="88"/>
       <c r="Q3" s="52"/>
-      <c r="R3" s="88" t="s">
+      <c r="R3" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="90"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="92"/>
       <c r="V3" s="52"/>
-      <c r="W3" s="88" t="s">
+      <c r="W3" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="90"/>
-      <c r="AB3" s="80" t="s">
+      <c r="X3" s="91"/>
+      <c r="Y3" s="92"/>
+      <c r="AB3" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="86"/>
-      <c r="AG3" s="80" t="s">
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="88"/>
+      <c r="AG3" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="AH3" s="81"/>
-      <c r="AI3" s="86"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="88"/>
+      <c r="AL3" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="88"/>
+      <c r="AQ3" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR3" s="83"/>
+      <c r="AS3" s="88"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -2384,10 +2406,10 @@
         <f>F4+E4</f>
         <v>1475</v>
       </c>
-      <c r="I4" s="82" t="s">
+      <c r="I4" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="83"/>
+      <c r="J4" s="85"/>
       <c r="M4" s="22" t="s">
         <v>38</v>
       </c>
@@ -2435,8 +2457,26 @@
       <c r="AI4" s="22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AL4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS4" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>50</v>
       </c>
@@ -2530,8 +2570,34 @@
         <f>AG5*140</f>
         <v>700</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AK5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL5" s="23">
+        <v>5</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="24">
+        <f>AL5*140</f>
+        <v>700</v>
+      </c>
+      <c r="AP5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ5" s="23">
+        <v>5</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="24">
+        <f>AQ5*140</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -2623,8 +2689,34 @@
         <f>AG6*160</f>
         <v>480</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AK6" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL6" s="23">
+        <v>2</v>
+      </c>
+      <c r="AM6">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="24">
+        <f>AL6*160</f>
+        <v>320</v>
+      </c>
+      <c r="AP6" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ6" s="23">
+        <v>4</v>
+      </c>
+      <c r="AR6">
+        <v>5</v>
+      </c>
+      <c r="AS6" s="24">
+        <f>AQ6*160</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>47</v>
       </c>
@@ -2710,8 +2802,34 @@
         <f>AG7*150</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AK7" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL7" s="23">
+        <v>4</v>
+      </c>
+      <c r="AM7">
+        <v>10</v>
+      </c>
+      <c r="AN7" s="24">
+        <f>AL7*150</f>
+        <v>600</v>
+      </c>
+      <c r="AP7" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ7" s="23">
+        <v>7</v>
+      </c>
+      <c r="AR7">
+        <v>10</v>
+      </c>
+      <c r="AS7" s="24">
+        <f>AQ7*150</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>54</v>
       </c>
@@ -2795,8 +2913,34 @@
         <f>AG8*150</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AK8" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL8" s="23">
+        <v>3</v>
+      </c>
+      <c r="AM8">
+        <v>4</v>
+      </c>
+      <c r="AN8" s="24">
+        <f>AL8*170</f>
+        <v>510</v>
+      </c>
+      <c r="AP8" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ8" s="23">
+        <v>5</v>
+      </c>
+      <c r="AR8">
+        <v>4</v>
+      </c>
+      <c r="AS8" s="24">
+        <f>AQ8*170</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>48</v>
       </c>
@@ -2886,8 +3030,34 @@
         <f>AG9*170</f>
         <v>510</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AK9" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL9" s="23">
+        <v>3</v>
+      </c>
+      <c r="AM9" s="25">
+        <v>24</v>
+      </c>
+      <c r="AN9" s="24">
+        <f>AL9*170</f>
+        <v>510</v>
+      </c>
+      <c r="AP9" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ9" s="23">
+        <v>4</v>
+      </c>
+      <c r="AR9" s="25">
+        <v>24</v>
+      </c>
+      <c r="AS9" s="24">
+        <f>AQ9*170</f>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
@@ -2976,8 +3146,32 @@
         <f>SUM(AI5:AI9)</f>
         <v>2590</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AK10" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL10" s="29">
+        <f>SUM(AL5:AL9)</f>
+        <v>17</v>
+      </c>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="31">
+        <f>SUM(AN5:AN9)</f>
+        <v>2640</v>
+      </c>
+      <c r="AP10" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ10" s="29">
+        <f>SUM(AQ5:AQ9)</f>
+        <v>25</v>
+      </c>
+      <c r="AR10" s="30"/>
+      <c r="AS10" s="31">
+        <f>SUM(AS5:AS9)</f>
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="35"/>
@@ -2996,7 +3190,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="I12" s="44" t="s">
         <v>69</v>
       </c>
@@ -3005,7 +3199,7 @@
         <v>4279</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I13" s="40" t="s">
         <v>14</v>
       </c>
@@ -3014,8 +3208,8 @@
         <v>10482</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I15" s="38" t="s">
         <v>26</v>
       </c>
@@ -3024,25 +3218,25 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
+    <row r="16" spans="1:45" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="79"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
     </row>
     <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
@@ -3080,17 +3274,17 @@
       <c r="D19">
         <v>157</v>
       </c>
-      <c r="E19" s="91">
+      <c r="E19" s="78">
         <v>3510.6</v>
       </c>
-      <c r="F19" s="91">
+      <c r="F19" s="78">
         <v>2280</v>
       </c>
       <c r="G19" s="33"/>
-      <c r="I19" s="84" t="s">
+      <c r="I19" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="85"/>
+      <c r="J19" s="87"/>
     </row>
     <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -3112,10 +3306,10 @@
         <v>2750</v>
       </c>
       <c r="G20" s="33"/>
-      <c r="I20" s="82" t="s">
+      <c r="I20" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="83"/>
+      <c r="J20" s="85"/>
     </row>
     <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -3178,8 +3372,12 @@
       <c r="B23" s="7">
         <v>45594</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="C23" s="4">
+        <v>22</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3029</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="33"/>
       <c r="I23" s="44" t="s">
@@ -3197,17 +3395,17 @@
       <c r="B24" s="20"/>
       <c r="C24" s="35">
         <f>SUM(C19:C23)</f>
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="D24" s="20">
         <f>SUM(D19:D23)</f>
         <v>363</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="79">
         <f>SUM(E19:E23)</f>
-        <v>8598.380000000001</v>
-      </c>
-      <c r="F24" s="92">
+        <v>11627.380000000001</v>
+      </c>
+      <c r="F24" s="20">
         <f>SUM(F19:F23)</f>
         <v>10320</v>
       </c>
@@ -3233,17 +3431,17 @@
       <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="I26" s="82" t="s">
+      <c r="I26" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="83"/>
+      <c r="J26" s="85"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I27" s="44" t="s">
         <v>33</v>
       </c>
       <c r="J27" s="69">
-        <f>E45</f>
+        <f>E47</f>
         <v>0</v>
       </c>
     </row>
@@ -3259,7 +3457,7 @@
       </c>
       <c r="J29" s="64">
         <f>E24</f>
-        <v>8598.380000000001</v>
+        <v>11627.380000000001</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -3289,7 +3487,7 @@
       </c>
       <c r="J33" s="66">
         <f>J27+J28+J29+J30+J31+J32</f>
-        <v>18918.38</v>
+        <v>21947.38</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -3299,89 +3497,65 @@
       </c>
       <c r="J35" s="37">
         <f>J24-J33</f>
-        <v>44599.619999999995</v>
+        <v>41570.619999999995</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="78" t="s">
+    <row r="37" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-    </row>
-    <row r="38" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="79"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-    </row>
-    <row r="39" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="87" t="s">
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="I39" s="85"/>
+      <c r="I39" s="87"/>
       <c r="J39" s="72" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="2">
-        <v>45524</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="E40" s="51">
-        <v>492.91</v>
-      </c>
-      <c r="F40" s="33"/>
-      <c r="H40" s="82" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="81"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="I40" s="83"/>
+      <c r="I40" s="85"/>
       <c r="J40" s="72" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="7">
-        <v>45553</v>
-      </c>
-      <c r="C41" s="4">
-        <v>3510.6</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="33"/>
+      <c r="A41" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="H41" s="44" t="s">
         <v>70</v>
       </c>
@@ -3390,21 +3564,20 @@
       </c>
       <c r="J41" s="73">
         <f>I41-I47</f>
-        <v>3401.619999999999</v>
+        <v>372.39999999999964</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="7">
-        <v>45555</v>
+        <v>79</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45524</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42">
-        <v>2280</v>
-      </c>
-      <c r="E42" s="4"/>
+      <c r="E42" s="51">
+        <v>492.91</v>
+      </c>
       <c r="F42" s="33"/>
       <c r="H42" s="44" t="s">
         <v>73</v>
@@ -3419,13 +3592,13 @@
     </row>
     <row r="43" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B43" s="7">
-        <v>45560</v>
+        <v>45553</v>
       </c>
       <c r="C43" s="4">
-        <v>3305</v>
+        <v>3510.6</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="33"/>
@@ -3442,14 +3615,14 @@
     </row>
     <row r="44" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B44" s="7">
-        <v>45562</v>
+        <v>45555</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44">
-        <v>2750</v>
+        <v>2280</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="33"/>
@@ -3462,47 +3635,47 @@
       </c>
       <c r="J44" s="73"/>
     </row>
-    <row r="45" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="77">
-        <v>45576</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45">
-        <v>2650</v>
+    <row r="45" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="7">
+        <v>45560</v>
+      </c>
+      <c r="C45" s="4">
+        <v>3305</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="33"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="77">
-        <v>45589</v>
-      </c>
-      <c r="C46" s="4">
-        <v>1782.78</v>
+      <c r="A46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="7">
+        <v>45562</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46">
+        <v>2750</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="33"/>
-      <c r="H46" s="82" t="s">
+      <c r="H46" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="I46" s="83"/>
+      <c r="I46" s="85"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47" s="77">
-        <v>45590</v>
+        <v>45576</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47">
-        <v>2640</v>
+        <v>2650</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="33"/>
@@ -3510,92 +3683,133 @@
         <v>70</v>
       </c>
       <c r="I47" s="74">
-        <f>C49</f>
-        <v>8598.380000000001</v>
+        <f>C52</f>
+        <v>11627.6</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="76"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="4"/>
+      <c r="A48" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="77">
+        <v>45589</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1782.78</v>
+      </c>
       <c r="E48" s="4"/>
       <c r="F48" s="33"/>
       <c r="H48" s="44" t="s">
         <v>69</v>
       </c>
       <c r="I48" s="74">
-        <f>D49</f>
+        <f>D52</f>
         <v>10320</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="67">
-        <f>SUM(C40:C48)</f>
-        <v>8598.380000000001</v>
-      </c>
-      <c r="D49" s="67">
-        <f>SUM(D40:D48)</f>
-        <v>10320</v>
-      </c>
-      <c r="E49" s="21">
-        <f>SUM(E40:E48)</f>
-        <v>492.91</v>
-      </c>
-      <c r="F49" s="67">
-        <f>SUM(C49:E49)</f>
-        <v>19411.29</v>
-      </c>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="77">
+        <v>45590</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49">
+        <v>2640</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="33"/>
       <c r="H49" s="44" t="s">
         <v>82</v>
       </c>
       <c r="I49" s="71">
-        <f>E49</f>
+        <f>E52</f>
         <v>492.91</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="21"/>
+    <row r="50" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="77"/>
+      <c r="C50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="33"/>
       <c r="H50" s="40" t="s">
         <v>14</v>
       </c>
       <c r="I50" s="75">
         <f>I47+I49+I48</f>
-        <v>19411.29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+        <v>22440.510000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="77">
+        <v>45592</v>
+      </c>
+      <c r="C51" s="4">
+        <v>3029.22</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="33"/>
+    </row>
     <row r="52" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="67">
+        <f>SUM(C42:C51)</f>
+        <v>11627.6</v>
+      </c>
+      <c r="D52" s="67">
+        <f>SUM(D42:D51)</f>
+        <v>10320</v>
+      </c>
+      <c r="E52" s="21">
+        <f>SUM(E42:E51)</f>
+        <v>492.91</v>
+      </c>
+      <c r="F52" s="67">
+        <f>SUM(C52:E52)</f>
+        <v>22440.51</v>
+      </c>
       <c r="H52" s="38" t="s">
         <v>26</v>
       </c>
       <c r="I52" s="37">
         <f>I44-I50</f>
-        <v>12588.71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+        <v>9559.489999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A37:G38"/>
+    <mergeCell ref="A39:G40"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="A16:G17"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="AB3:AD3"/>
     <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="AQ3:AS3"/>
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="H46:I46"/>

--- a/budget/budget2024.xlsx
+++ b/budget/budget2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felicia/lillekat.github.io/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F99464-A91F-8D42-B720-C2C4EB0E0853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DB572C-4E7F-0D40-9D4C-9100F8EB7CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="6280" windowWidth="14200" windowHeight="15980" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
+    <workbookView xWindow="14600" yWindow="700" windowWidth="14200" windowHeight="15980" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
@@ -949,9 +949,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -959,6 +956,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2278,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3C72BB-923F-DB4A-A4B9-C9C78647B110}">
   <dimension ref="A1:AS54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2353,17 +2353,17 @@
       <c r="N3" s="83"/>
       <c r="O3" s="88"/>
       <c r="Q3" s="52"/>
-      <c r="R3" s="90" t="s">
+      <c r="R3" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="91"/>
-      <c r="T3" s="92"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="91"/>
       <c r="V3" s="52"/>
-      <c r="W3" s="90" t="s">
+      <c r="W3" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="92"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="91"/>
       <c r="AB3" s="82" t="s">
         <v>88</v>
       </c>
@@ -3513,7 +3513,7 @@
       <c r="E39" s="80"/>
       <c r="F39" s="80"/>
       <c r="G39" s="80"/>
-      <c r="H39" s="89" t="s">
+      <c r="H39" s="92" t="s">
         <v>78</v>
       </c>
       <c r="I39" s="87"/>
@@ -3732,7 +3732,9 @@
       <c r="A50" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="77"/>
+      <c r="B50" s="77">
+        <v>45594</v>
+      </c>
       <c r="C50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="33"/>
@@ -3797,6 +3799,13 @@
     <row r="54" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I20:J20"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="R3:T3"/>
@@ -3808,13 +3817,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="AB3:AD3"/>
     <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="AL3:AN3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I20:J20"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/budget/budget2024.xlsx
+++ b/budget/budget2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felicia/lillekat.github.io/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DB572C-4E7F-0D40-9D4C-9100F8EB7CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C8DED1-5972-794E-89EA-AD45527AB2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="700" windowWidth="14200" windowHeight="15980" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
+    <workbookView xWindow="14120" yWindow="680" windowWidth="14200" windowHeight="15980" activeTab="2" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
@@ -2279,7 +2279,7 @@
   <dimension ref="A1:AS54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3373,12 +3373,17 @@
         <v>45594</v>
       </c>
       <c r="C23" s="4">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>53</v>
       </c>
       <c r="E23" s="4">
         <v>3029</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="4">
+        <v>3920</v>
+      </c>
       <c r="G23" s="33"/>
       <c r="I23" s="44" t="s">
         <v>75</v>
@@ -3395,11 +3400,11 @@
       <c r="B24" s="20"/>
       <c r="C24" s="35">
         <f>SUM(C19:C23)</f>
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D24" s="20">
         <f>SUM(D19:D23)</f>
-        <v>363</v>
+        <v>416</v>
       </c>
       <c r="E24" s="79">
         <f>SUM(E19:E23)</f>
@@ -3407,7 +3412,7 @@
       </c>
       <c r="F24" s="20">
         <f>SUM(F19:F23)</f>
-        <v>10320</v>
+        <v>14240</v>
       </c>
       <c r="G24" s="21">
         <f>SUM(G19:G23)</f>
@@ -3466,7 +3471,7 @@
       </c>
       <c r="J30" s="64">
         <f>F24</f>
-        <v>10320</v>
+        <v>14240</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -3487,7 +3492,7 @@
       </c>
       <c r="J33" s="66">
         <f>J27+J28+J29+J30+J31+J32</f>
-        <v>21947.38</v>
+        <v>25867.38</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -3497,7 +3502,7 @@
       </c>
       <c r="J35" s="37">
         <f>J24-J33</f>
-        <v>41570.619999999995</v>
+        <v>37650.619999999995</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -3587,7 +3592,7 @@
       </c>
       <c r="J42" s="73">
         <f>I42-I48</f>
-        <v>4680</v>
+        <v>760</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3704,7 +3709,7 @@
       </c>
       <c r="I48" s="74">
         <f>D52</f>
-        <v>10320</v>
+        <v>14240</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -3736,6 +3741,9 @@
         <v>45594</v>
       </c>
       <c r="C50" s="4"/>
+      <c r="D50">
+        <v>3920</v>
+      </c>
       <c r="E50" s="4"/>
       <c r="F50" s="33"/>
       <c r="H50" s="40" t="s">
@@ -3743,7 +3751,7 @@
       </c>
       <c r="I50" s="75">
         <f>I47+I49+I48</f>
-        <v>22440.510000000002</v>
+        <v>26360.510000000002</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -3770,7 +3778,7 @@
       </c>
       <c r="D52" s="67">
         <f>SUM(D42:D51)</f>
-        <v>10320</v>
+        <v>14240</v>
       </c>
       <c r="E52" s="21">
         <f>SUM(E42:E51)</f>
@@ -3778,14 +3786,14 @@
       </c>
       <c r="F52" s="67">
         <f>SUM(C52:E52)</f>
-        <v>22440.51</v>
+        <v>26360.51</v>
       </c>
       <c r="H52" s="38" t="s">
         <v>26</v>
       </c>
       <c r="I52" s="37">
         <f>I44-I50</f>
-        <v>9559.489999999998</v>
+        <v>5639.489999999998</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
